--- a/Data/H5N1_Outbreaks/HPAI_Dairy_Farms.xlsx
+++ b/Data/H5N1_Outbreaks/HPAI_Dairy_Farms.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/263e6c96784ab765/Desktop/H5N1/Data/H5N1_Outbreaks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="560" documentId="13_ncr:1_{4D34A9C4-F07C-402E-9D5B-1C2E19EFBF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D767996-69F3-4CDD-B673-2281C54C3DA9}"/>
+  <xr:revisionPtr revIDLastSave="563" documentId="13_ncr:1_{4D34A9C4-F07C-402E-9D5B-1C2E19EFBF54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{15AA53C8-74CB-4BE8-892A-1D0AEB3B86C8}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dairy" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
     <author>tc={C9778B8B-D18B-4A8A-BC09-E46661F8E491}</author>
   </authors>
   <commentList>
-    <comment ref="D529" authorId="0" shapeId="0" xr:uid="{C9778B8B-D18B-4A8A-BC09-E46661F8E491}">
+    <comment ref="D528" authorId="0" shapeId="0" xr:uid="{C9778B8B-D18B-4A8A-BC09-E46661F8E491}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1663" uniqueCount="705">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1661" uniqueCount="703">
   <si>
     <t>CA 001</t>
   </si>
@@ -2154,16 +2154,10 @@
     <t>UT 002</t>
   </si>
   <si>
-    <t>OR 001</t>
-  </si>
-  <si>
     <t>ID 038</t>
   </si>
   <si>
     <t>ID 037</t>
-  </si>
-  <si>
-    <t>Oregon</t>
   </si>
   <si>
     <t>Utah</t>
@@ -2254,7 +2248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2287,9 +2281,6 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2631,7 +2622,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="D529" dT="2024-09-24T18:30:33.40" personId="{6A4F1DDE-7C4C-452E-A83C-D95A0CA2BB0C}" id="{C9778B8B-D18B-4A8A-BC09-E46661F8E491}">
+  <threadedComment ref="D528" dT="2024-09-24T18:30:33.40" personId="{6A4F1DDE-7C4C-452E-A83C-D95A0CA2BB0C}" id="{C9778B8B-D18B-4A8A-BC09-E46661F8E491}">
     <text>USDA Data indicates no dairy operations with inventory</text>
   </threadedComment>
 </ThreadedComments>
@@ -2639,10 +2630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F553"/>
+  <dimension ref="A1:F552"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A519" workbookViewId="0">
-      <selection activeCell="D540" sqref="D540:D552"/>
+    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
+      <selection activeCell="J497" sqref="J497:K497"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9279,7 +9270,7 @@
         <v>292</v>
       </c>
       <c r="C449" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D449">
         <v>0</v>
@@ -9294,7 +9285,7 @@
         <v>302</v>
       </c>
       <c r="C450" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D450">
         <v>0</v>
@@ -10127,38 +10118,44 @@
       <c r="F505" s="4"/>
     </row>
     <row r="506" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A506" s="14" t="s">
-        <v>702</v>
+      <c r="A506" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B506" s="10" t="s">
+        <v>295</v>
       </c>
       <c r="C506" s="4" t="s">
-        <v>699</v>
+        <v>249</v>
+      </c>
+      <c r="D506">
+        <v>0</v>
       </c>
       <c r="F506" s="4"/>
     </row>
     <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="B507" s="10" t="s">
-        <v>295</v>
+        <v>195</v>
+      </c>
+      <c r="B507" t="s">
+        <v>335</v>
       </c>
       <c r="C507" s="4" t="s">
-        <v>249</v>
+        <v>194</v>
       </c>
       <c r="D507">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F507" s="4"/>
     </row>
     <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" s="4" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B508" t="s">
         <v>335</v>
       </c>
       <c r="C508" s="4" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D508">
         <v>1</v>
@@ -10167,13 +10164,13 @@
     </row>
     <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" s="4" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="B509" t="s">
         <v>335</v>
       </c>
       <c r="C509" s="4" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="D509">
         <v>1</v>
@@ -10182,13 +10179,13 @@
     </row>
     <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" s="4" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="B510" t="s">
         <v>335</v>
       </c>
       <c r="C510" s="4" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="D510">
         <v>1</v>
@@ -10196,14 +10193,14 @@
       <c r="F510" s="4"/>
     </row>
     <row r="511" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A511" s="4" t="s">
-        <v>158</v>
+      <c r="A511" s="5" t="s">
+        <v>28</v>
       </c>
       <c r="B511" t="s">
         <v>335</v>
       </c>
       <c r="C511" s="4" t="s">
-        <v>157</v>
+        <v>26</v>
       </c>
       <c r="D511">
         <v>1</v>
@@ -10218,7 +10215,7 @@
         <v>335</v>
       </c>
       <c r="C512" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D512">
         <v>1</v>
@@ -10227,28 +10224,28 @@
     </row>
     <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" s="5" t="s">
-        <v>28</v>
+        <v>279</v>
       </c>
       <c r="B513" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="C513" s="4" t="s">
-        <v>27</v>
+        <v>276</v>
       </c>
       <c r="D513">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F513" s="4"/>
     </row>
     <row r="514" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A514" s="5" t="s">
-        <v>279</v>
+      <c r="A514" s="4" t="s">
+        <v>285</v>
       </c>
       <c r="B514" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C514" s="4" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D514">
         <v>0</v>
@@ -10257,13 +10254,13 @@
     </row>
     <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" s="4" t="s">
-        <v>285</v>
+        <v>252</v>
       </c>
       <c r="B515" t="s">
-        <v>340</v>
+        <v>312</v>
       </c>
       <c r="C515" s="4" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="D515">
         <v>0</v>
@@ -10272,13 +10269,13 @@
     </row>
     <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" s="4" t="s">
-        <v>252</v>
+        <v>283</v>
       </c>
       <c r="B516" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C516" s="4" t="s">
-        <v>251</v>
+        <v>282</v>
       </c>
       <c r="D516">
         <v>0</v>
@@ -10286,14 +10283,14 @@
       <c r="F516" s="4"/>
     </row>
     <row r="517" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A517" s="4" t="s">
-        <v>283</v>
+      <c r="A517" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B517" t="s">
-        <v>313</v>
+        <v>339</v>
       </c>
       <c r="C517" s="4" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="D517">
         <v>0</v>
@@ -10301,14 +10298,14 @@
       <c r="F517" s="4"/>
     </row>
     <row r="518" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A518" s="5" t="s">
-        <v>24</v>
+      <c r="A518" s="4" t="s">
+        <v>235</v>
       </c>
       <c r="B518" t="s">
         <v>339</v>
       </c>
       <c r="C518" s="4" t="s">
-        <v>277</v>
+        <v>234</v>
       </c>
       <c r="D518">
         <v>0</v>
@@ -10316,14 +10313,14 @@
       <c r="F518" s="4"/>
     </row>
     <row r="519" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A519" s="4" t="s">
-        <v>235</v>
+      <c r="A519" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="B519" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="C519" s="4" t="s">
-        <v>234</v>
+        <v>278</v>
       </c>
       <c r="D519">
         <v>0</v>
@@ -10332,13 +10329,13 @@
     </row>
     <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" s="5" t="s">
-        <v>24</v>
+        <v>273</v>
       </c>
       <c r="B520" t="s">
-        <v>312</v>
+        <v>342</v>
       </c>
       <c r="C520" s="4" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D520">
         <v>0</v>
@@ -10347,13 +10344,13 @@
     </row>
     <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" s="5" t="s">
-        <v>273</v>
+        <v>24</v>
       </c>
       <c r="B521" t="s">
         <v>342</v>
       </c>
       <c r="C521" s="4" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D521">
         <v>0</v>
@@ -10362,13 +10359,13 @@
     </row>
     <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" s="5" t="s">
-        <v>24</v>
+        <v>261</v>
       </c>
       <c r="B522" t="s">
         <v>342</v>
       </c>
       <c r="C522" s="4" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="D522">
         <v>0</v>
@@ -10377,13 +10374,13 @@
     </row>
     <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" s="5" t="s">
-        <v>261</v>
+        <v>24</v>
       </c>
       <c r="B523" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C523" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D523">
         <v>0</v>
@@ -10391,14 +10388,14 @@
       <c r="F523" s="4"/>
     </row>
     <row r="524" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A524" s="5" t="s">
-        <v>24</v>
+      <c r="A524" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="B524" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C524" s="4" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="D524">
         <v>0</v>
@@ -10407,13 +10404,13 @@
     </row>
     <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="B525" t="s">
-        <v>340</v>
+        <v>216</v>
+      </c>
+      <c r="B525" s="10" t="s">
+        <v>339</v>
       </c>
       <c r="C525" s="4" t="s">
-        <v>243</v>
+        <v>215</v>
       </c>
       <c r="D525">
         <v>0</v>
@@ -10422,13 +10419,13 @@
     </row>
     <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" s="4" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="B526" s="10" t="s">
-        <v>339</v>
+        <v>312</v>
       </c>
       <c r="C526" s="4" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="D526">
         <v>0</v>
@@ -10437,13 +10434,13 @@
     </row>
     <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B527" s="10" t="s">
-        <v>312</v>
+        <v>183</v>
+      </c>
+      <c r="B527" t="s">
+        <v>339</v>
       </c>
       <c r="C527" s="4" t="s">
-        <v>196</v>
+        <v>182</v>
       </c>
       <c r="D527">
         <v>0</v>
@@ -10452,58 +10449,58 @@
     </row>
     <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" s="4" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="B528" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C528" s="4" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="D528">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F528" s="4"/>
     </row>
     <row r="529" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A529" s="4" t="s">
-        <v>160</v>
+      <c r="A529" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="B529" t="s">
-        <v>338</v>
+        <v>311</v>
       </c>
       <c r="C529" s="4" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="D529">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F529" s="4"/>
     </row>
     <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" s="5" t="s">
-        <v>154</v>
+        <v>24</v>
       </c>
       <c r="B530" t="s">
+        <v>337</v>
+      </c>
+      <c r="C530" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D530">
+        <v>0</v>
+      </c>
+      <c r="F530" s="4"/>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A531" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="B531" t="s">
         <v>311</v>
       </c>
-      <c r="C530" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D530">
-        <v>0</v>
-      </c>
-      <c r="F530" s="4"/>
-    </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A531" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B531" t="s">
-        <v>337</v>
-      </c>
       <c r="C531" s="4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D531">
         <v>0</v>
@@ -10511,14 +10508,14 @@
       <c r="F531" s="4"/>
     </row>
     <row r="532" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A532" s="4" t="s">
-        <v>149</v>
+      <c r="A532" s="5" t="s">
+        <v>119</v>
       </c>
       <c r="B532" t="s">
         <v>311</v>
       </c>
       <c r="C532" s="4" t="s">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="D532">
         <v>0</v>
@@ -10527,13 +10524,13 @@
     </row>
     <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" s="5" t="s">
-        <v>119</v>
+        <v>24</v>
       </c>
       <c r="B533" t="s">
         <v>311</v>
       </c>
       <c r="C533" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D533">
         <v>0</v>
@@ -10541,14 +10538,14 @@
       <c r="F533" s="4"/>
     </row>
     <row r="534" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A534" s="5" t="s">
-        <v>24</v>
+      <c r="A534" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="B534" t="s">
         <v>311</v>
       </c>
       <c r="C534" s="4" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="D534">
         <v>0</v>
@@ -10557,13 +10554,13 @@
     </row>
     <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" s="4" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="B535" t="s">
         <v>311</v>
       </c>
       <c r="C535" s="4" t="s">
-        <v>71</v>
+        <v>31</v>
       </c>
       <c r="D535">
         <v>0</v>
@@ -10572,13 +10569,13 @@
     </row>
     <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" s="4" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B536" t="s">
         <v>311</v>
       </c>
       <c r="C536" s="4" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D536">
         <v>0</v>
@@ -10593,7 +10590,7 @@
         <v>311</v>
       </c>
       <c r="C537" s="4" t="s">
-        <v>23</v>
+        <v>446</v>
       </c>
       <c r="D537">
         <v>0</v>
@@ -10608,7 +10605,7 @@
         <v>311</v>
       </c>
       <c r="C538" s="4" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D538">
         <v>0</v>
@@ -10617,13 +10614,13 @@
     </row>
     <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" s="4" t="s">
-        <v>24</v>
+        <v>701</v>
       </c>
       <c r="B539" t="s">
-        <v>311</v>
+        <v>702</v>
       </c>
       <c r="C539" s="4" t="s">
-        <v>447</v>
+        <v>698</v>
       </c>
       <c r="D539">
         <v>0</v>
@@ -10631,14 +10628,14 @@
       <c r="F539" s="4"/>
     </row>
     <row r="540" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A540" s="14" t="s">
-        <v>703</v>
+      <c r="A540" s="4" t="s">
+        <v>701</v>
       </c>
       <c r="B540" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C540" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D540">
         <v>0</v>
@@ -10646,14 +10643,14 @@
       <c r="F540" s="4"/>
     </row>
     <row r="541" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A541" s="14" t="s">
-        <v>703</v>
+      <c r="A541" s="4" t="s">
+        <v>701</v>
       </c>
       <c r="B541" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C541" s="4" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="D541">
         <v>0</v>
@@ -10661,14 +10658,14 @@
       <c r="F541" s="4"/>
     </row>
     <row r="542" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A542" s="14" t="s">
-        <v>703</v>
+      <c r="A542" s="4" t="s">
+        <v>701</v>
       </c>
       <c r="B542" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C542" s="4" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="D542">
         <v>0</v>
@@ -10676,14 +10673,14 @@
       <c r="F542" s="4"/>
     </row>
     <row r="543" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A543" s="14" t="s">
-        <v>703</v>
+      <c r="A543" s="4" t="s">
+        <v>701</v>
       </c>
       <c r="B543" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C543" s="4" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D543">
         <v>0</v>
@@ -10691,14 +10688,14 @@
       <c r="F543" s="4"/>
     </row>
     <row r="544" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A544" s="14" t="s">
-        <v>703</v>
+      <c r="A544" s="4" t="s">
+        <v>701</v>
       </c>
       <c r="B544" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C544" s="4" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D544">
         <v>0</v>
@@ -10706,14 +10703,14 @@
       <c r="F544" s="4"/>
     </row>
     <row r="545" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A545" s="14" t="s">
-        <v>703</v>
+      <c r="A545" s="4" t="s">
+        <v>701</v>
       </c>
       <c r="B545" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C545" s="4" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="D545">
         <v>0</v>
@@ -10721,14 +10718,14 @@
       <c r="F545" s="4"/>
     </row>
     <row r="546" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A546" s="14" t="s">
-        <v>703</v>
+      <c r="A546" s="4" t="s">
+        <v>701</v>
       </c>
       <c r="B546" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C546" s="4" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="D546">
         <v>0</v>
@@ -10736,14 +10733,14 @@
       <c r="F546" s="4"/>
     </row>
     <row r="547" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A547" s="14" t="s">
-        <v>703</v>
+      <c r="A547" s="4" t="s">
+        <v>701</v>
       </c>
       <c r="B547" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C547" s="4" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="D547">
         <v>0</v>
@@ -10751,14 +10748,14 @@
       <c r="F547" s="4"/>
     </row>
     <row r="548" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A548" s="14" t="s">
-        <v>703</v>
+      <c r="A548" s="4" t="s">
+        <v>701</v>
       </c>
       <c r="B548" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C548" s="4" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D548">
         <v>0</v>
@@ -10766,14 +10763,14 @@
       <c r="F548" s="4"/>
     </row>
     <row r="549" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A549" s="14" t="s">
-        <v>703</v>
+      <c r="A549" s="4" t="s">
+        <v>701</v>
       </c>
       <c r="B549" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C549" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D549">
         <v>0</v>
@@ -10781,14 +10778,14 @@
       <c r="F549" s="4"/>
     </row>
     <row r="550" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A550" s="14" t="s">
-        <v>703</v>
+      <c r="A550" s="4" t="s">
+        <v>701</v>
       </c>
       <c r="B550" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C550" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D550">
         <v>0</v>
@@ -10796,14 +10793,14 @@
       <c r="F550" s="4"/>
     </row>
     <row r="551" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A551" s="14" t="s">
-        <v>703</v>
+      <c r="A551" s="4" t="s">
+        <v>701</v>
       </c>
       <c r="B551" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="C551" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D551">
         <v>0</v>
@@ -10811,34 +10808,19 @@
       <c r="F551" s="4"/>
     </row>
     <row r="552" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A552" s="14" t="s">
-        <v>703</v>
+      <c r="A552" s="4" t="s">
+        <v>145</v>
       </c>
       <c r="B552" t="s">
-        <v>704</v>
+        <v>343</v>
       </c>
       <c r="C552" s="4" t="s">
-        <v>686</v>
+        <v>144</v>
       </c>
       <c r="D552">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F552" s="4"/>
-    </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A553" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="B553" t="s">
-        <v>343</v>
-      </c>
-      <c r="C553" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="D553">
-        <v>1</v>
-      </c>
-      <c r="F553" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D300">
